--- a/development/stimuli/word_lists/no_common_letters_calc.xlsx
+++ b/development/stimuli/word_lists/no_common_letters_calc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\codes\subliminal_priming\stimuli\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\development\stimuli\word_lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF66035B-7E1E-4DD1-8448-A94C4602E981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C869B9B8-C967-43CA-8F2A-096BB4036CD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9984" yWindow="3528" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -503,12 +503,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -522,12 +516,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -535,6 +523,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R66"/>
+  <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36:R65"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -844,20 +844,20 @@
       <c r="D1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="L1" s="11" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="L1" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1940,11 +1940,11 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="4"/>
@@ -1990,11 +1990,11 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="4"/>
@@ -2040,11 +2040,11 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="4"/>
@@ -2090,11 +2090,11 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D25" s="4"/>
@@ -2140,11 +2140,11 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D26" s="4"/>
@@ -2190,11 +2190,11 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="4"/>
@@ -2240,11 +2240,11 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="4"/>
@@ -2290,11 +2290,11 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="4"/>
@@ -2340,11 +2340,11 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="4"/>
@@ -2390,11 +2390,11 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D31" s="7"/>
@@ -2439,1841 +2439,1955 @@
         <v>ס</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="C34" s="9" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+    </row>
+    <row r="52" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+      <c r="C52" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D52" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E34" t="str">
-        <f>MID(D34,1,1)</f>
+      <c r="E52" t="str">
+        <f>MID(D52,1,1)</f>
         <v>א</v>
       </c>
-      <c r="F34" t="str">
-        <f>MID(D34,2,1)</f>
+      <c r="F52" t="str">
+        <f>MID(D52,2,1)</f>
         <v>ל</v>
       </c>
-      <c r="G34" t="str">
-        <f>MID(D34,3,1)</f>
+      <c r="G52" t="str">
+        <f>MID(D52,3,1)</f>
         <v>מ</v>
       </c>
-      <c r="H34" t="str">
-        <f>MID(D34,4,1)</f>
+      <c r="H52" t="str">
+        <f>MID(D52,4,1)</f>
         <v>ו</v>
       </c>
-      <c r="I34" t="str">
-        <f>MID(D34,5,1)</f>
+      <c r="I52" t="str">
+        <f>MID(D52,5,1)</f>
         <v>ג</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="E35" s="25" t="s">
+    <row r="53" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+      <c r="E53" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="27" t="s">
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K35" s="28" t="s">
+      <c r="K53" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L35" s="25" t="s">
+      <c r="L53" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="27" t="s">
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="R35" s="28" t="s">
+      <c r="R53" s="24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="E36" s="14" t="b">
-        <f>E$34=E2</f>
-        <v>1</v>
-      </c>
-      <c r="F36" s="15" t="b">
-        <f>F$34=F2</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="15" t="b">
-        <f>G$34=G2</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="15" t="b">
-        <f>H$34=H2</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="15" t="b">
-        <f>I$34=I2</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="16" t="b">
-        <f>NOT(OR(I36,H36,G36,F36,E36))</f>
-        <v>0</v>
-      </c>
-      <c r="K36" s="17" t="str">
-        <f>IF(J36,A2,"")</f>
+    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="E54" s="12" t="b">
+        <f>E$52=E2</f>
+        <v>1</v>
+      </c>
+      <c r="F54" s="13" t="b">
+        <f>F$52=F2</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="13" t="b">
+        <f>G$52=G2</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="13" t="b">
+        <f>H$52=H2</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="13" t="b">
+        <f>I$52=I2</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="14" t="b">
+        <f>NOT(OR(I54,H54,G54,F54,E54))</f>
+        <v>0</v>
+      </c>
+      <c r="K54" s="15" t="str">
+        <f>IF(J54,A2,"")</f>
         <v/>
       </c>
-      <c r="L36" s="14" t="b">
-        <f>E$34=L2</f>
-        <v>1</v>
-      </c>
-      <c r="M36" s="15" t="b">
-        <f>F$34=M2</f>
-        <v>0</v>
-      </c>
-      <c r="N36" s="15" t="b">
-        <f>G$34=N2</f>
-        <v>0</v>
-      </c>
-      <c r="O36" s="15" t="b">
-        <f>H$34=O2</f>
-        <v>0</v>
-      </c>
-      <c r="P36" s="15" t="b">
-        <f>I$34=P2</f>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="16" t="b">
-        <f>NOT(OR(P36,O36,N36,M36,L36))</f>
-        <v>0</v>
-      </c>
-      <c r="R36" s="17" t="str">
-        <f>IF(Q36,C2,"")</f>
+      <c r="L54" s="12" t="b">
+        <f>E$52=L2</f>
+        <v>1</v>
+      </c>
+      <c r="M54" s="13" t="b">
+        <f>F$52=M2</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="13" t="b">
+        <f>G$52=N2</f>
+        <v>0</v>
+      </c>
+      <c r="O54" s="13" t="b">
+        <f>H$52=O2</f>
+        <v>0</v>
+      </c>
+      <c r="P54" s="13" t="b">
+        <f>I$52=P2</f>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="14" t="b">
+        <f>NOT(OR(P54,O54,N54,M54,L54))</f>
+        <v>0</v>
+      </c>
+      <c r="R54" s="15" t="str">
+        <f>IF(Q54,C2,"")</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="E37" s="18" t="b">
-        <f t="shared" ref="E37:I37" si="10">E$34=E3</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="12" t="b">
+    <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="E55" s="16" t="b">
+        <f>E$52=E3</f>
+        <v>0</v>
+      </c>
+      <c r="F55" s="10" t="b">
+        <f>F$52=F3</f>
+        <v>0</v>
+      </c>
+      <c r="G55" s="10" t="b">
+        <f>G$52=G3</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="10" t="b">
+        <f>H$52=H3</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="10" t="b">
+        <f>I$52=I3</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="17" t="b">
+        <f t="shared" ref="J55:J83" si="10">NOT(OR(I55,H55,G55,F55,E55))</f>
+        <v>1</v>
+      </c>
+      <c r="K55" s="18" t="str">
+        <f>IF(J55,A3,"")</f>
+        <v>פרחים</v>
+      </c>
+      <c r="L55" s="16" t="b">
+        <f>E$52=L3</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="10" t="b">
+        <f>F$52=M3</f>
+        <v>1</v>
+      </c>
+      <c r="N55" s="10" t="b">
+        <f>G$52=N3</f>
+        <v>0</v>
+      </c>
+      <c r="O55" s="10" t="b">
+        <f>H$52=O3</f>
+        <v>0</v>
+      </c>
+      <c r="P55" s="10" t="b">
+        <f>I$52=P3</f>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="17" t="b">
+        <f t="shared" ref="Q55:Q83" si="11">NOT(OR(P55,O55,N55,M55,L55))</f>
+        <v>0</v>
+      </c>
+      <c r="R55" s="18" t="str">
+        <f>IF(Q55,C3,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="E56" s="16" t="b">
+        <f>E$52=E4</f>
+        <v>0</v>
+      </c>
+      <c r="F56" s="10" t="b">
+        <f>F$52=F4</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="10" t="b">
+        <f>G$52=G4</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="10" t="b">
+        <f>H$52=H4</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="10" t="b">
+        <f>I$52=I4</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="17" t="b">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K56" s="18" t="str">
+        <f>IF(J56,A4,"")</f>
+        <v>צפרדע</v>
+      </c>
+      <c r="L56" s="16" t="b">
+        <f>E$52=L4</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="10" t="b">
+        <f>F$52=M4</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="10" t="b">
+        <f>G$52=N4</f>
+        <v>0</v>
+      </c>
+      <c r="O56" s="10" t="b">
+        <f>H$52=O4</f>
+        <v>0</v>
+      </c>
+      <c r="P56" s="10" t="b">
+        <f>I$52=P4</f>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="17" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="R56" s="18" t="str">
+        <f>IF(Q56,C4,"")</f>
+        <v>גיטרה</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="E57" s="16" t="b">
+        <f>E$52=E5</f>
+        <v>0</v>
+      </c>
+      <c r="F57" s="10" t="b">
+        <f>F$52=F5</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="10" t="b">
+        <f>G$52=G5</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="10" t="b">
+        <f>H$52=H5</f>
+        <v>1</v>
+      </c>
+      <c r="I57" s="10" t="b">
+        <f>I$52=I5</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="17" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H37" s="12" t="b">
+      <c r="K57" s="18" t="str">
+        <f>IF(J57,A5,"")</f>
+        <v/>
+      </c>
+      <c r="L57" s="16" t="b">
+        <f>E$52=L5</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="10" t="b">
+        <f>F$52=M5</f>
+        <v>1</v>
+      </c>
+      <c r="N57" s="10" t="b">
+        <f>G$52=N5</f>
+        <v>0</v>
+      </c>
+      <c r="O57" s="10" t="b">
+        <f>H$52=O5</f>
+        <v>0</v>
+      </c>
+      <c r="P57" s="10" t="b">
+        <f>I$52=P5</f>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="17" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="18" t="str">
+        <f>IF(Q57,C5,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="E58" s="16" t="b">
+        <f>E$52=E6</f>
+        <v>1</v>
+      </c>
+      <c r="F58" s="10" t="b">
+        <f>F$52=F6</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="10" t="b">
+        <f>G$52=G6</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="10" t="b">
+        <f>H$52=H6</f>
+        <v>1</v>
+      </c>
+      <c r="I58" s="10" t="b">
+        <f>I$52=I6</f>
+        <v>1</v>
+      </c>
+      <c r="J58" s="17" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I37" s="12" t="b">
+      <c r="K58" s="18" t="str">
+        <f>IF(J58,A6,"")</f>
+        <v/>
+      </c>
+      <c r="L58" s="16" t="b">
+        <f>E$52=L6</f>
+        <v>0</v>
+      </c>
+      <c r="M58" s="10" t="b">
+        <f>F$52=M6</f>
+        <v>0</v>
+      </c>
+      <c r="N58" s="10" t="b">
+        <f>G$52=N6</f>
+        <v>0</v>
+      </c>
+      <c r="O58" s="10" t="b">
+        <f>H$52=O6</f>
+        <v>1</v>
+      </c>
+      <c r="P58" s="10" t="b">
+        <f>I$52=P6</f>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="17" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="18" t="str">
+        <f>IF(Q58,C6,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="E59" s="16" t="b">
+        <f>E$52=E7</f>
+        <v>0</v>
+      </c>
+      <c r="F59" s="10" t="b">
+        <f>F$52=F7</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="10" t="b">
+        <f>G$52=G7</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="10" t="b">
+        <f>H$52=H7</f>
+        <v>1</v>
+      </c>
+      <c r="I59" s="10" t="b">
+        <f>I$52=I7</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="17" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J37" s="19" t="b">
-        <f t="shared" ref="J37:J65" si="11">NOT(OR(I37,H37,G37,F37,E37))</f>
-        <v>1</v>
-      </c>
-      <c r="K37" s="20" t="str">
-        <f t="shared" ref="K37:K65" si="12">IF(J37,A3,"")</f>
-        <v>פרחים</v>
-      </c>
-      <c r="L37" s="18" t="b">
-        <f t="shared" ref="L37:P37" si="13">E$34=L3</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="12" t="b">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="N37" s="12" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="12" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="12" t="b">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="19" t="b">
-        <f t="shared" ref="Q37:Q65" si="14">NOT(OR(P37,O37,N37,M37,L37))</f>
-        <v>0</v>
-      </c>
-      <c r="R37" s="20" t="str">
-        <f t="shared" ref="R37:R65" si="15">IF(Q37,C3,"")</f>
+      <c r="K59" s="18" t="str">
+        <f>IF(J59,A7,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="E38" s="18" t="b">
-        <f t="shared" ref="E38:I38" si="16">E$34=E4</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="12" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="12" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="12" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="12" t="b">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="19" t="b">
+      <c r="L59" s="16" t="b">
+        <f>E$52=L7</f>
+        <v>0</v>
+      </c>
+      <c r="M59" s="10" t="b">
+        <f>F$52=M7</f>
+        <v>0</v>
+      </c>
+      <c r="N59" s="10" t="b">
+        <f>G$52=N7</f>
+        <v>0</v>
+      </c>
+      <c r="O59" s="10" t="b">
+        <f>H$52=O7</f>
+        <v>0</v>
+      </c>
+      <c r="P59" s="10" t="b">
+        <f>I$52=P7</f>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="17" t="b">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="K38" s="20" t="str">
-        <f t="shared" si="12"/>
-        <v>צפרדע</v>
-      </c>
-      <c r="L38" s="18" t="b">
-        <f t="shared" ref="L38:P38" si="17">E$34=L4</f>
-        <v>0</v>
-      </c>
-      <c r="M38" s="12" t="b">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="12" t="b">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="12" t="b">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="12" t="b">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="R38" s="20" t="str">
-        <f t="shared" si="15"/>
-        <v>גיטרה</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="E39" s="18" t="b">
-        <f t="shared" ref="E39:I39" si="18">E$34=E5</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="12" t="b">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="12" t="b">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="12" t="b">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="I39" s="12" t="b">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="19" t="b">
+      <c r="R59" s="18" t="str">
+        <f>IF(Q59,C7,"")</f>
+        <v>יאכטה</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="E60" s="16" t="b">
+        <f>E$52=E8</f>
+        <v>1</v>
+      </c>
+      <c r="F60" s="10" t="b">
+        <f>F$52=F8</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="10" t="b">
+        <f>G$52=G8</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="10" t="b">
+        <f>H$52=H8</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="10" t="b">
+        <f>I$52=I8</f>
+        <v>0</v>
+      </c>
+      <c r="J60" s="17" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="18" t="str">
+        <f>IF(J60,A8,"")</f>
+        <v/>
+      </c>
+      <c r="L60" s="16" t="b">
+        <f>E$52=L8</f>
+        <v>0</v>
+      </c>
+      <c r="M60" s="10" t="b">
+        <f>F$52=M8</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="10" t="b">
+        <f>G$52=N8</f>
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="b">
+        <f>H$52=O8</f>
+        <v>0</v>
+      </c>
+      <c r="P60" s="10" t="b">
+        <f>I$52=P8</f>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="17" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="20" t="str">
-        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="R60" s="18" t="str">
+        <f>IF(Q60,C8,"")</f>
+        <v>טוסטר</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="E61" s="16" t="b">
+        <f>E$52=E9</f>
+        <v>0</v>
+      </c>
+      <c r="F61" s="10" t="b">
+        <f>F$52=F9</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="10" t="b">
+        <f>G$52=G9</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="10" t="b">
+        <f>H$52=H9</f>
+        <v>0</v>
+      </c>
+      <c r="I61" s="10" t="b">
+        <f>I$52=I9</f>
+        <v>0</v>
+      </c>
+      <c r="J61" s="17" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K61" s="18" t="str">
+        <f>IF(J61,A9,"")</f>
+        <v>מעיים</v>
+      </c>
+      <c r="L61" s="16" t="b">
+        <f>E$52=L9</f>
+        <v>0</v>
+      </c>
+      <c r="M61" s="10" t="b">
+        <f>F$52=M9</f>
+        <v>0</v>
+      </c>
+      <c r="N61" s="10" t="b">
+        <f>G$52=N9</f>
+        <v>0</v>
+      </c>
+      <c r="O61" s="10" t="b">
+        <f>H$52=O9</f>
+        <v>0</v>
+      </c>
+      <c r="P61" s="10" t="b">
+        <f>I$52=P9</f>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="17" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="R61" s="18" t="str">
+        <f>IF(Q61,C9,"")</f>
+        <v>כביסה</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="E62" s="16" t="b">
+        <f>E$52=E10</f>
+        <v>0</v>
+      </c>
+      <c r="F62" s="10" t="b">
+        <f>F$52=F10</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="10" t="b">
+        <f>G$52=G10</f>
+        <v>1</v>
+      </c>
+      <c r="H62" s="10" t="b">
+        <f>H$52=H10</f>
+        <v>1</v>
+      </c>
+      <c r="I62" s="10" t="b">
+        <f>I$52=I10</f>
+        <v>0</v>
+      </c>
+      <c r="J62" s="17" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="18" t="str">
+        <f>IF(J62,A10,"")</f>
         <v/>
       </c>
-      <c r="L39" s="18" t="b">
-        <f t="shared" ref="L39:P39" si="19">E$34=L5</f>
-        <v>0</v>
-      </c>
-      <c r="M39" s="12" t="b">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="N39" s="12" t="b">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O39" s="12" t="b">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="12" t="b">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R39" s="20" t="str">
-        <f t="shared" si="15"/>
+      <c r="L62" s="16" t="b">
+        <f>E$52=L10</f>
+        <v>0</v>
+      </c>
+      <c r="M62" s="10" t="b">
+        <f>F$52=M10</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="10" t="b">
+        <f>G$52=N10</f>
+        <v>0</v>
+      </c>
+      <c r="O62" s="10" t="b">
+        <f>H$52=O10</f>
+        <v>0</v>
+      </c>
+      <c r="P62" s="10" t="b">
+        <f>I$52=P10</f>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="17" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="R62" s="18" t="str">
+        <f>IF(Q62,C10,"")</f>
+        <v>כורסה</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="E63" s="16" t="b">
+        <f>E$52=E11</f>
+        <v>1</v>
+      </c>
+      <c r="F63" s="10" t="b">
+        <f>F$52=F11</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="10" t="b">
+        <f>G$52=G11</f>
+        <v>0</v>
+      </c>
+      <c r="H63" s="10" t="b">
+        <f>H$52=H11</f>
+        <v>0</v>
+      </c>
+      <c r="I63" s="10" t="b">
+        <f>I$52=I11</f>
+        <v>0</v>
+      </c>
+      <c r="J63" s="17" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="18" t="str">
+        <f>IF(J63,A11,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="E40" s="18" t="b">
-        <f t="shared" ref="E40:I40" si="20">E$34=E6</f>
-        <v>1</v>
-      </c>
-      <c r="F40" s="12" t="b">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="12" t="b">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="12" t="b">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="I40" s="12" t="b">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="J40" s="19" t="b">
+      <c r="L63" s="16" t="b">
+        <f>E$52=L11</f>
+        <v>0</v>
+      </c>
+      <c r="M63" s="10" t="b">
+        <f>F$52=M11</f>
+        <v>0</v>
+      </c>
+      <c r="N63" s="10" t="b">
+        <f>G$52=N11</f>
+        <v>0</v>
+      </c>
+      <c r="O63" s="10" t="b">
+        <f>H$52=O11</f>
+        <v>1</v>
+      </c>
+      <c r="P63" s="10" t="b">
+        <f>I$52=P11</f>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="17" t="b">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K40" s="20" t="str">
-        <f t="shared" si="12"/>
+      <c r="R63" s="18" t="str">
+        <f>IF(Q63,C11,"")</f>
         <v/>
       </c>
-      <c r="L40" s="18" t="b">
-        <f t="shared" ref="L40:P40" si="21">E$34=L6</f>
-        <v>0</v>
-      </c>
-      <c r="M40" s="12" t="b">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="12" t="b">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="12" t="b">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="P40" s="12" t="b">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R40" s="20" t="str">
-        <f t="shared" si="15"/>
+    </row>
+    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="E64" s="16" t="b">
+        <f>E$52=E12</f>
+        <v>0</v>
+      </c>
+      <c r="F64" s="10" t="b">
+        <f>F$52=F12</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="10" t="b">
+        <f>G$52=G12</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="10" t="b">
+        <f>H$52=H12</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="10" t="b">
+        <f>I$52=I12</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="17" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K64" s="18" t="str">
+        <f>IF(J64,A12,"")</f>
+        <v>זריחה</v>
+      </c>
+      <c r="L64" s="16" t="b">
+        <f>E$52=L12</f>
+        <v>0</v>
+      </c>
+      <c r="M64" s="10" t="b">
+        <f>F$52=M12</f>
+        <v>0</v>
+      </c>
+      <c r="N64" s="10" t="b">
+        <f>G$52=N12</f>
+        <v>0</v>
+      </c>
+      <c r="O64" s="10" t="b">
+        <f>H$52=O12</f>
+        <v>1</v>
+      </c>
+      <c r="P64" s="10" t="b">
+        <f>I$52=P12</f>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="17" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R64" s="18" t="str">
+        <f>IF(Q64,C12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="E41" s="18" t="b">
-        <f t="shared" ref="E41:I41" si="22">E$34=E7</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="12" t="b">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="12" t="b">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="12" t="b">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="I41" s="12" t="b">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="19" t="b">
+    <row r="65" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="E65" s="16" t="b">
+        <f>E$52=E13</f>
+        <v>0</v>
+      </c>
+      <c r="F65" s="10" t="b">
+        <f>F$52=F13</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="10" t="b">
+        <f>G$52=G13</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="10" t="b">
+        <f>H$52=H13</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="10" t="b">
+        <f>I$52=I13</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="17" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K65" s="18" t="str">
+        <f>IF(J65,A13,"")</f>
+        <v>פיסגה</v>
+      </c>
+      <c r="L65" s="16" t="b">
+        <f>E$52=L13</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="10" t="b">
+        <f>F$52=M13</f>
+        <v>0</v>
+      </c>
+      <c r="N65" s="10" t="b">
+        <f>G$52=N13</f>
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="b">
+        <f>H$52=O13</f>
+        <v>1</v>
+      </c>
+      <c r="P65" s="10" t="b">
+        <f>I$52=P13</f>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="17" t="b">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K41" s="20" t="str">
-        <f t="shared" si="12"/>
+      <c r="R65" s="18" t="str">
+        <f>IF(Q65,C13,"")</f>
         <v/>
       </c>
-      <c r="L41" s="18" t="b">
-        <f t="shared" ref="L41:P41" si="23">E$34=L7</f>
-        <v>0</v>
-      </c>
-      <c r="M41" s="12" t="b">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="12" t="b">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="12" t="b">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="12" t="b">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="R41" s="20" t="str">
-        <f t="shared" si="15"/>
-        <v>יאכטה</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="E42" s="18" t="b">
-        <f t="shared" ref="E42:I42" si="24">E$34=E8</f>
-        <v>1</v>
-      </c>
-      <c r="F42" s="12" t="b">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="12" t="b">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="12" t="b">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="12" t="b">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="19" t="b">
+    </row>
+    <row r="66" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="E66" s="16" t="b">
+        <f>E$52=E14</f>
+        <v>0</v>
+      </c>
+      <c r="F66" s="10" t="b">
+        <f>F$52=F14</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="10" t="b">
+        <f>G$52=G14</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="10" t="b">
+        <f>H$52=H14</f>
+        <v>1</v>
+      </c>
+      <c r="I66" s="10" t="b">
+        <f>I$52=I14</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="17" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="18" t="str">
+        <f>IF(J66,A14,"")</f>
+        <v/>
+      </c>
+      <c r="L66" s="16" t="b">
+        <f>E$52=L14</f>
+        <v>0</v>
+      </c>
+      <c r="M66" s="10" t="b">
+        <f>F$52=M14</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="10" t="b">
+        <f>G$52=N14</f>
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="b">
+        <f>H$52=O14</f>
+        <v>0</v>
+      </c>
+      <c r="P66" s="10" t="b">
+        <f>I$52=P14</f>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="17" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="20" t="str">
-        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="R66" s="18" t="str">
+        <f>IF(Q66,C14,"")</f>
+        <v>מגירה</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="E67" s="16" t="b">
+        <f>E$52=E15</f>
+        <v>0</v>
+      </c>
+      <c r="F67" s="10" t="b">
+        <f>F$52=F15</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="10" t="b">
+        <f>G$52=G15</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="10" t="b">
+        <f>H$52=H15</f>
+        <v>1</v>
+      </c>
+      <c r="I67" s="10" t="b">
+        <f>I$52=I15</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="17" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="18" t="str">
+        <f>IF(J67,A15,"")</f>
         <v/>
       </c>
-      <c r="L42" s="18" t="b">
-        <f t="shared" ref="L42:P42" si="25">E$34=L8</f>
-        <v>0</v>
-      </c>
-      <c r="M42" s="12" t="b">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="N42" s="12" t="b">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="12" t="b">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="P42" s="12" t="b">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="R42" s="20" t="str">
-        <f t="shared" si="15"/>
-        <v>טוסטר</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="E43" s="18" t="b">
-        <f t="shared" ref="E43:I43" si="26">E$34=E9</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="12" t="b">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="12" t="b">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="12" t="b">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="12" t="b">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="19" t="b">
+      <c r="L67" s="16" t="b">
+        <f>E$52=L15</f>
+        <v>0</v>
+      </c>
+      <c r="M67" s="10" t="b">
+        <f>F$52=M15</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="10" t="b">
+        <f>G$52=N15</f>
+        <v>0</v>
+      </c>
+      <c r="O67" s="10" t="b">
+        <f>H$52=O15</f>
+        <v>0</v>
+      </c>
+      <c r="P67" s="10" t="b">
+        <f>I$52=P15</f>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="17" t="b">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="K43" s="20" t="str">
-        <f t="shared" si="12"/>
-        <v>מעיים</v>
-      </c>
-      <c r="L43" s="18" t="b">
-        <f t="shared" ref="L43:P43" si="27">E$34=L9</f>
-        <v>0</v>
-      </c>
-      <c r="M43" s="12" t="b">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="N43" s="12" t="b">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="12" t="b">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="12" t="b">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="R43" s="20" t="str">
-        <f t="shared" si="15"/>
-        <v>כביסה</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="E44" s="18" t="b">
-        <f t="shared" ref="E44:I44" si="28">E$34=E10</f>
-        <v>0</v>
-      </c>
-      <c r="F44" s="12" t="b">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="12" t="b">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="H44" s="12" t="b">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="I44" s="12" t="b">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="19" t="b">
+      <c r="R67" s="18" t="str">
+        <f>IF(Q67,C15,"")</f>
+        <v>מדפסת</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="E68" s="16" t="b">
+        <f>E$52=E16</f>
+        <v>0</v>
+      </c>
+      <c r="F68" s="10" t="b">
+        <f>F$52=F16</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="10" t="b">
+        <f>G$52=G16</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="10" t="b">
+        <f>H$52=H16</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="10" t="b">
+        <f>I$52=I16</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="17" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K68" s="18" t="str">
+        <f>IF(J68,A16,"")</f>
+        <v>נרקיס</v>
+      </c>
+      <c r="L68" s="16" t="b">
+        <f>E$52=L16</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="10" t="b">
+        <f>F$52=M16</f>
+        <v>0</v>
+      </c>
+      <c r="N68" s="10" t="b">
+        <f>G$52=N16</f>
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="b">
+        <f>H$52=O16</f>
+        <v>0</v>
+      </c>
+      <c r="P68" s="10" t="b">
+        <f>I$52=P16</f>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="17" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="20" t="str">
-        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="R68" s="18" t="str">
+        <f>IF(Q68,C16,"")</f>
+        <v>מזרקה</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="E69" s="16" t="b">
+        <f>E$52=E17</f>
+        <v>1</v>
+      </c>
+      <c r="F69" s="10" t="b">
+        <f>F$52=F17</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="10" t="b">
+        <f>G$52=G17</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="10" t="b">
+        <f>H$52=H17</f>
+        <v>1</v>
+      </c>
+      <c r="I69" s="10" t="b">
+        <f>I$52=I17</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="17" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="18" t="str">
+        <f>IF(J69,A17,"")</f>
         <v/>
       </c>
-      <c r="L44" s="18" t="b">
-        <f t="shared" ref="L44:P44" si="29">E$34=L10</f>
-        <v>0</v>
-      </c>
-      <c r="M44" s="12" t="b">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N44" s="12" t="b">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="O44" s="12" t="b">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="12" t="b">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="R44" s="20" t="str">
-        <f t="shared" si="15"/>
-        <v>כורסה</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="E45" s="18" t="b">
-        <f t="shared" ref="E45:I45" si="30">E$34=E11</f>
-        <v>1</v>
-      </c>
-      <c r="F45" s="12" t="b">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="12" t="b">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="12" t="b">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="12" t="b">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="19" t="b">
+      <c r="L69" s="16" t="b">
+        <f>E$52=L17</f>
+        <v>0</v>
+      </c>
+      <c r="M69" s="10" t="b">
+        <f>F$52=M17</f>
+        <v>0</v>
+      </c>
+      <c r="N69" s="10" t="b">
+        <f>G$52=N17</f>
+        <v>0</v>
+      </c>
+      <c r="O69" s="10" t="b">
+        <f>H$52=O17</f>
+        <v>0</v>
+      </c>
+      <c r="P69" s="10" t="b">
+        <f>I$52=P17</f>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="17" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="20" t="str">
-        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="R69" s="18" t="str">
+        <f>IF(Q69,C17,"")</f>
+        <v>מטאטא</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="E70" s="16" t="b">
+        <f>E$52=E18</f>
+        <v>0</v>
+      </c>
+      <c r="F70" s="10" t="b">
+        <f>F$52=F18</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="10" t="b">
+        <f>G$52=G18</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="10" t="b">
+        <f>H$52=H18</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="10" t="b">
+        <f>I$52=I18</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="17" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K70" s="18" t="str">
+        <f>IF(J70,A18,"")</f>
+        <v>עשבים</v>
+      </c>
+      <c r="L70" s="16" t="b">
+        <f>E$52=L18</f>
+        <v>0</v>
+      </c>
+      <c r="M70" s="10" t="b">
+        <f>F$52=M18</f>
+        <v>0</v>
+      </c>
+      <c r="N70" s="10" t="b">
+        <f>G$52=N18</f>
+        <v>0</v>
+      </c>
+      <c r="O70" s="10" t="b">
+        <f>H$52=O18</f>
+        <v>0</v>
+      </c>
+      <c r="P70" s="10" t="b">
+        <f>I$52=P18</f>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="17" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="R70" s="18" t="str">
+        <f>IF(Q70,C18,"")</f>
+        <v>מייבש</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+      <c r="E71" s="16" t="b">
+        <f>E$52=E19</f>
+        <v>0</v>
+      </c>
+      <c r="F71" s="10" t="b">
+        <f>F$52=F19</f>
+        <v>0</v>
+      </c>
+      <c r="G71" s="10" t="b">
+        <f>G$52=G19</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="10" t="b">
+        <f>H$52=H19</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="10" t="b">
+        <f>I$52=I19</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="17" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K71" s="18" t="str">
+        <f>IF(J71,A19,"")</f>
+        <v>עמקים</v>
+      </c>
+      <c r="L71" s="16" t="b">
+        <f>E$52=L19</f>
+        <v>0</v>
+      </c>
+      <c r="M71" s="10" t="b">
+        <f>F$52=M19</f>
+        <v>0</v>
+      </c>
+      <c r="N71" s="10" t="b">
+        <f>G$52=N19</f>
+        <v>0</v>
+      </c>
+      <c r="O71" s="10" t="b">
+        <f>H$52=O19</f>
+        <v>0</v>
+      </c>
+      <c r="P71" s="10" t="b">
+        <f>I$52=P19</f>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="17" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="R71" s="18" t="str">
+        <f>IF(Q71,C19,"")</f>
+        <v>מנורה</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="E72" s="16" t="b">
+        <f>E$52=E20</f>
+        <v>0</v>
+      </c>
+      <c r="F72" s="10" t="b">
+        <f>F$52=F20</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="10" t="b">
+        <f>G$52=G20</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="10" t="b">
+        <f>H$52=H20</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="10" t="b">
+        <f>I$52=I20</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="17" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K72" s="18" t="str">
+        <f>IF(J72,A20,"")</f>
+        <v>שמיים</v>
+      </c>
+      <c r="L72" s="16" t="b">
+        <f>E$52=L20</f>
+        <v>0</v>
+      </c>
+      <c r="M72" s="10" t="b">
+        <f>F$52=M20</f>
+        <v>0</v>
+      </c>
+      <c r="N72" s="10" t="b">
+        <f>G$52=N20</f>
+        <v>0</v>
+      </c>
+      <c r="O72" s="10" t="b">
+        <f>H$52=O20</f>
+        <v>0</v>
+      </c>
+      <c r="P72" s="10" t="b">
+        <f>I$52=P20</f>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="17" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="R72" s="18" t="str">
+        <f>IF(Q72,C20,"")</f>
+        <v>מסילה</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="E73" s="16" t="b">
+        <f>E$52=E21</f>
+        <v>0</v>
+      </c>
+      <c r="F73" s="10" t="b">
+        <f>F$52=F21</f>
+        <v>0</v>
+      </c>
+      <c r="G73" s="10" t="b">
+        <f>G$52=G21</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="10" t="b">
+        <f>H$52=H21</f>
+        <v>1</v>
+      </c>
+      <c r="I73" s="10" t="b">
+        <f>I$52=I21</f>
+        <v>0</v>
+      </c>
+      <c r="J73" s="17" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="18" t="str">
+        <f>IF(J73,A21,"")</f>
         <v/>
       </c>
-      <c r="L45" s="18" t="b">
-        <f t="shared" ref="L45:P45" si="31">E$34=L11</f>
-        <v>0</v>
-      </c>
-      <c r="M45" s="12" t="b">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="N45" s="12" t="b">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="O45" s="12" t="b">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="P45" s="12" t="b">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R45" s="20" t="str">
-        <f t="shared" si="15"/>
+      <c r="L73" s="16" t="b">
+        <f>E$52=L21</f>
+        <v>0</v>
+      </c>
+      <c r="M73" s="10" t="b">
+        <f>F$52=M21</f>
+        <v>0</v>
+      </c>
+      <c r="N73" s="10" t="b">
+        <f>G$52=N21</f>
+        <v>0</v>
+      </c>
+      <c r="O73" s="10" t="b">
+        <f>H$52=O21</f>
+        <v>0</v>
+      </c>
+      <c r="P73" s="10" t="b">
+        <f>I$52=P21</f>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="17" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="R73" s="18" t="str">
+        <f>IF(Q73,C21,"")</f>
+        <v>מסננת</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="E74" s="16" t="b">
+        <f>E$52=E22</f>
+        <v>0</v>
+      </c>
+      <c r="F74" s="10" t="b">
+        <f>F$52=F22</f>
+        <v>1</v>
+      </c>
+      <c r="G74" s="10" t="b">
+        <f>G$52=G22</f>
+        <v>0</v>
+      </c>
+      <c r="H74" s="10" t="b">
+        <f>H$52=H22</f>
+        <v>0</v>
+      </c>
+      <c r="I74" s="10" t="b">
+        <f>I$52=I22</f>
+        <v>0</v>
+      </c>
+      <c r="J74" s="17" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="18" t="str">
+        <f>IF(J74,A22,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="E46" s="18" t="b">
-        <f t="shared" ref="E46:I46" si="32">E$34=E12</f>
-        <v>0</v>
-      </c>
-      <c r="F46" s="12" t="b">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="12" t="b">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="12" t="b">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="12" t="b">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="19" t="b">
+      <c r="L74" s="16" t="b">
+        <f>E$52=L22</f>
+        <v>0</v>
+      </c>
+      <c r="M74" s="10" t="b">
+        <f>F$52=M22</f>
+        <v>0</v>
+      </c>
+      <c r="N74" s="10" t="b">
+        <f>G$52=N22</f>
+        <v>0</v>
+      </c>
+      <c r="O74" s="10" t="b">
+        <f>H$52=O22</f>
+        <v>0</v>
+      </c>
+      <c r="P74" s="10" t="b">
+        <f>I$52=P22</f>
+        <v>0</v>
+      </c>
+      <c r="Q74" s="17" t="b">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="K46" s="20" t="str">
-        <f t="shared" si="12"/>
-        <v>זריחה</v>
-      </c>
-      <c r="L46" s="18" t="b">
-        <f t="shared" ref="L46:P46" si="33">E$34=L12</f>
-        <v>0</v>
-      </c>
-      <c r="M46" s="12" t="b">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="N46" s="12" t="b">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="O46" s="12" t="b">
-        <f t="shared" si="33"/>
-        <v>1</v>
-      </c>
-      <c r="P46" s="12" t="b">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R46" s="20" t="str">
-        <f t="shared" si="15"/>
+      <c r="R74" s="18" t="str">
+        <f>IF(Q74,C22,"")</f>
+        <v>מצלמה</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="E75" s="16" t="b">
+        <f>E$52=E23</f>
+        <v>0</v>
+      </c>
+      <c r="F75" s="10" t="b">
+        <f>F$52=F23</f>
+        <v>0</v>
+      </c>
+      <c r="G75" s="10" t="b">
+        <f>G$52=G23</f>
+        <v>0</v>
+      </c>
+      <c r="H75" s="10" t="b">
+        <f>H$52=H23</f>
+        <v>1</v>
+      </c>
+      <c r="I75" s="10" t="b">
+        <f>I$52=I23</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="17" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="18" t="str">
+        <f>IF(J75,A23,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="E47" s="18" t="b">
-        <f t="shared" ref="E47:I47" si="34">E$34=E13</f>
-        <v>0</v>
-      </c>
-      <c r="F47" s="12" t="b">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="12" t="b">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="12" t="b">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="12" t="b">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="19" t="b">
+      <c r="L75" s="16" t="b">
+        <f>E$52=L23</f>
+        <v>0</v>
+      </c>
+      <c r="M75" s="10" t="b">
+        <f>F$52=M23</f>
+        <v>0</v>
+      </c>
+      <c r="N75" s="10" t="b">
+        <f>G$52=N23</f>
+        <v>0</v>
+      </c>
+      <c r="O75" s="10" t="b">
+        <f>H$52=O23</f>
+        <v>0</v>
+      </c>
+      <c r="P75" s="10" t="b">
+        <f>I$52=P23</f>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="17" t="b">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="K47" s="20" t="str">
-        <f t="shared" si="12"/>
-        <v>פיסגה</v>
-      </c>
-      <c r="L47" s="18" t="b">
-        <f t="shared" ref="L47:P47" si="35">E$34=L13</f>
-        <v>0</v>
-      </c>
-      <c r="M47" s="12" t="b">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="N47" s="12" t="b">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="O47" s="12" t="b">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="P47" s="12" t="b">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="20" t="str">
-        <f t="shared" si="15"/>
+      <c r="R75" s="18" t="str">
+        <f>IF(Q75,C23,"")</f>
+        <v>מקלדת</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="E76" s="16" t="b">
+        <f>E$52=E24</f>
+        <v>1</v>
+      </c>
+      <c r="F76" s="10" t="b">
+        <f>F$52=F24</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="10" t="b">
+        <f>G$52=G24</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="10" t="b">
+        <f>H$52=H24</f>
+        <v>0</v>
+      </c>
+      <c r="I76" s="10" t="b">
+        <f>I$52=I24</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="17" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="18" t="str">
+        <f>IF(J76,A24,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="E48" s="18" t="b">
-        <f t="shared" ref="E48:I48" si="36">E$34=E14</f>
-        <v>0</v>
-      </c>
-      <c r="F48" s="12" t="b">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="12" t="b">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="12" t="b">
-        <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="I48" s="12" t="b">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="19" t="b">
+      <c r="L76" s="16" t="b">
+        <f>E$52=L24</f>
+        <v>0</v>
+      </c>
+      <c r="M76" s="10" t="b">
+        <f>F$52=M24</f>
+        <v>0</v>
+      </c>
+      <c r="N76" s="10" t="b">
+        <f>G$52=N24</f>
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="b">
+        <f>H$52=O24</f>
+        <v>0</v>
+      </c>
+      <c r="P76" s="10" t="b">
+        <f>I$52=P24</f>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="17" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="20" t="str">
-        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="R76" s="18" t="str">
+        <f>IF(Q76,C24,"")</f>
+        <v>משאבה</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E77" s="16" t="b">
+        <f>E$52=E25</f>
+        <v>0</v>
+      </c>
+      <c r="F77" s="10" t="b">
+        <f>F$52=F25</f>
+        <v>0</v>
+      </c>
+      <c r="G77" s="10" t="b">
+        <f>G$52=G25</f>
+        <v>0</v>
+      </c>
+      <c r="H77" s="10" t="b">
+        <f>H$52=H25</f>
+        <v>1</v>
+      </c>
+      <c r="I77" s="10" t="b">
+        <f>I$52=I25</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="17" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="18" t="str">
+        <f>IF(J77,A25,"")</f>
         <v/>
       </c>
-      <c r="L48" s="18" t="b">
-        <f t="shared" ref="L48:P48" si="37">E$34=L14</f>
-        <v>0</v>
-      </c>
-      <c r="M48" s="12" t="b">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N48" s="12" t="b">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="O48" s="12" t="b">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="12" t="b">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="R48" s="20" t="str">
-        <f t="shared" si="15"/>
-        <v>מגירה</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="E49" s="18" t="b">
-        <f t="shared" ref="E49:I49" si="38">E$34=E15</f>
-        <v>0</v>
-      </c>
-      <c r="F49" s="12" t="b">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="12" t="b">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="12" t="b">
-        <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="I49" s="12" t="b">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="19" t="b">
+      <c r="L77" s="16" t="b">
+        <f>E$52=L25</f>
+        <v>0</v>
+      </c>
+      <c r="M77" s="10" t="b">
+        <f>F$52=M25</f>
+        <v>0</v>
+      </c>
+      <c r="N77" s="10" t="b">
+        <f>G$52=N25</f>
+        <v>0</v>
+      </c>
+      <c r="O77" s="10" t="b">
+        <f>H$52=O25</f>
+        <v>0</v>
+      </c>
+      <c r="P77" s="10" t="b">
+        <f>I$52=P25</f>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="17" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="20" t="str">
-        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="R77" s="18" t="str">
+        <f>IF(Q77,C25,"")</f>
+        <v>עניבה</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="E78" s="16" t="b">
+        <f>E$52=E26</f>
+        <v>0</v>
+      </c>
+      <c r="F78" s="10" t="b">
+        <f>F$52=F26</f>
+        <v>0</v>
+      </c>
+      <c r="G78" s="10" t="b">
+        <f>G$52=G26</f>
+        <v>0</v>
+      </c>
+      <c r="H78" s="10" t="b">
+        <f>H$52=H26</f>
+        <v>1</v>
+      </c>
+      <c r="I78" s="10" t="b">
+        <f>I$52=I26</f>
+        <v>0</v>
+      </c>
+      <c r="J78" s="17" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K78" s="18" t="str">
+        <f>IF(J78,A26,"")</f>
         <v/>
       </c>
-      <c r="L49" s="18" t="b">
-        <f t="shared" ref="L49:P49" si="39">E$34=L15</f>
-        <v>0</v>
-      </c>
-      <c r="M49" s="12" t="b">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="N49" s="12" t="b">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="O49" s="12" t="b">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="P49" s="12" t="b">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="R49" s="20" t="str">
-        <f t="shared" si="15"/>
-        <v>מדפסת</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="E50" s="18" t="b">
-        <f t="shared" ref="E50:I50" si="40">E$34=E16</f>
-        <v>0</v>
-      </c>
-      <c r="F50" s="12" t="b">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="12" t="b">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="12" t="b">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="12" t="b">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="J50" s="19" t="b">
+      <c r="L78" s="16" t="b">
+        <f>E$52=L26</f>
+        <v>0</v>
+      </c>
+      <c r="M78" s="10" t="b">
+        <f>F$52=M26</f>
+        <v>1</v>
+      </c>
+      <c r="N78" s="10" t="b">
+        <f>G$52=N26</f>
+        <v>0</v>
+      </c>
+      <c r="O78" s="10" t="b">
+        <f>H$52=O26</f>
+        <v>0</v>
+      </c>
+      <c r="P78" s="10" t="b">
+        <f>I$52=P26</f>
+        <v>0</v>
+      </c>
+      <c r="Q78" s="17" t="b">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="K50" s="20" t="str">
-        <f t="shared" si="12"/>
-        <v>נרקיס</v>
-      </c>
-      <c r="L50" s="18" t="b">
-        <f t="shared" ref="L50:P50" si="41">E$34=L16</f>
-        <v>0</v>
-      </c>
-      <c r="M50" s="12" t="b">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="N50" s="12" t="b">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="O50" s="12" t="b">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="P50" s="12" t="b">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="Q50" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="R50" s="20" t="str">
-        <f t="shared" si="15"/>
-        <v>מזרקה</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="E51" s="18" t="b">
-        <f t="shared" ref="E51:I51" si="42">E$34=E17</f>
-        <v>1</v>
-      </c>
-      <c r="F51" s="12" t="b">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="12" t="b">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="12" t="b">
-        <f t="shared" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="I51" s="12" t="b">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="J51" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R78" s="18" t="str">
+        <f>IF(Q78,C26,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="E79" s="16" t="b">
+        <f>E$52=E27</f>
+        <v>1</v>
+      </c>
+      <c r="F79" s="10" t="b">
+        <f>F$52=F27</f>
+        <v>0</v>
+      </c>
+      <c r="G79" s="10" t="b">
+        <f>G$52=G27</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="10" t="b">
+        <f>H$52=H27</f>
+        <v>1</v>
+      </c>
+      <c r="I79" s="10" t="b">
+        <f>I$52=I27</f>
+        <v>0</v>
+      </c>
+      <c r="J79" s="17" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K79" s="18" t="str">
+        <f>IF(J79,A27,"")</f>
+        <v/>
+      </c>
+      <c r="L79" s="16" t="b">
+        <f>E$52=L27</f>
+        <v>0</v>
+      </c>
+      <c r="M79" s="10" t="b">
+        <f>F$52=M27</f>
+        <v>0</v>
+      </c>
+      <c r="N79" s="10" t="b">
+        <f>G$52=N27</f>
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="b">
+        <f>H$52=O27</f>
+        <v>1</v>
+      </c>
+      <c r="P79" s="10" t="b">
+        <f>I$52=P27</f>
+        <v>0</v>
+      </c>
+      <c r="Q79" s="17" t="b">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K51" s="20" t="str">
-        <f t="shared" si="12"/>
+      <c r="R79" s="18" t="str">
+        <f>IF(Q79,C27,"")</f>
         <v/>
       </c>
-      <c r="L51" s="18" t="b">
-        <f t="shared" ref="L51:P51" si="43">E$34=L17</f>
-        <v>0</v>
-      </c>
-      <c r="M51" s="12" t="b">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="N51" s="12" t="b">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="O51" s="12" t="b">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="P51" s="12" t="b">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="Q51" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="R51" s="20" t="str">
-        <f t="shared" si="15"/>
-        <v>מטאטא</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="E52" s="18" t="b">
-        <f t="shared" ref="E52:I52" si="44">E$34=E18</f>
-        <v>0</v>
-      </c>
-      <c r="F52" s="12" t="b">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="12" t="b">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="12" t="b">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="12" t="b">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="19" t="b">
+    </row>
+    <row r="80" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="E80" s="16" t="b">
+        <f>E$52=E28</f>
+        <v>0</v>
+      </c>
+      <c r="F80" s="10" t="b">
+        <f>F$52=F28</f>
+        <v>0</v>
+      </c>
+      <c r="G80" s="10" t="b">
+        <f>G$52=G28</f>
+        <v>0</v>
+      </c>
+      <c r="H80" s="10" t="b">
+        <f>H$52=H28</f>
+        <v>0</v>
+      </c>
+      <c r="I80" s="10" t="b">
+        <f>I$52=I28</f>
+        <v>0</v>
+      </c>
+      <c r="J80" s="17" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K80" s="18" t="str">
+        <f>IF(J80,A28,"")</f>
+        <v>עכביש</v>
+      </c>
+      <c r="L80" s="16" t="b">
+        <f>E$52=L28</f>
+        <v>0</v>
+      </c>
+      <c r="M80" s="10" t="b">
+        <f>F$52=M28</f>
+        <v>0</v>
+      </c>
+      <c r="N80" s="10" t="b">
+        <f>G$52=N28</f>
+        <v>0</v>
+      </c>
+      <c r="O80" s="10" t="b">
+        <f>H$52=O28</f>
+        <v>1</v>
+      </c>
+      <c r="P80" s="10" t="b">
+        <f>I$52=P28</f>
+        <v>0</v>
+      </c>
+      <c r="Q80" s="17" t="b">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="K52" s="20" t="str">
-        <f t="shared" si="12"/>
-        <v>עשבים</v>
-      </c>
-      <c r="L52" s="18" t="b">
-        <f t="shared" ref="L52:P52" si="45">E$34=L18</f>
-        <v>0</v>
-      </c>
-      <c r="M52" s="12" t="b">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="N52" s="12" t="b">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="O52" s="12" t="b">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="P52" s="12" t="b">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="Q52" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="R52" s="20" t="str">
-        <f t="shared" si="15"/>
-        <v>מייבש</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="E53" s="18" t="b">
-        <f t="shared" ref="E53:I53" si="46">E$34=E19</f>
-        <v>0</v>
-      </c>
-      <c r="F53" s="12" t="b">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="12" t="b">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="12" t="b">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="12" t="b">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="J53" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R80" s="18" t="str">
+        <f>IF(Q80,C28,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="5:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="E81" s="16" t="b">
+        <f>E$52=E29</f>
+        <v>0</v>
+      </c>
+      <c r="F81" s="10" t="b">
+        <f>F$52=F29</f>
+        <v>1</v>
+      </c>
+      <c r="G81" s="10" t="b">
+        <f>G$52=G29</f>
+        <v>0</v>
+      </c>
+      <c r="H81" s="10" t="b">
+        <f>H$52=H29</f>
+        <v>0</v>
+      </c>
+      <c r="I81" s="10" t="b">
+        <f>I$52=I29</f>
+        <v>0</v>
+      </c>
+      <c r="J81" s="17" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K81" s="18" t="str">
+        <f>IF(J81,A29,"")</f>
+        <v/>
+      </c>
+      <c r="L81" s="16" t="b">
+        <f>E$52=L29</f>
+        <v>0</v>
+      </c>
+      <c r="M81" s="10" t="b">
+        <f>F$52=M29</f>
+        <v>0</v>
+      </c>
+      <c r="N81" s="10" t="b">
+        <f>G$52=N29</f>
+        <v>0</v>
+      </c>
+      <c r="O81" s="10" t="b">
+        <f>H$52=O29</f>
+        <v>0</v>
+      </c>
+      <c r="P81" s="10" t="b">
+        <f>I$52=P29</f>
+        <v>0</v>
+      </c>
+      <c r="Q81" s="17" t="b">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="K53" s="20" t="str">
-        <f t="shared" si="12"/>
-        <v>עמקים</v>
-      </c>
-      <c r="L53" s="18" t="b">
-        <f t="shared" ref="L53:P53" si="47">E$34=L19</f>
-        <v>0</v>
-      </c>
-      <c r="M53" s="12" t="b">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="N53" s="12" t="b">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="O53" s="12" t="b">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="P53" s="12" t="b">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="Q53" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="R53" s="20" t="str">
-        <f t="shared" si="15"/>
-        <v>מנורה</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="E54" s="18" t="b">
-        <f t="shared" ref="E54:I54" si="48">E$34=E20</f>
-        <v>0</v>
-      </c>
-      <c r="F54" s="12" t="b">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="12" t="b">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="12" t="b">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="12" t="b">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="19" t="b">
+      <c r="R81" s="18" t="str">
+        <f>IF(Q81,C29,"")</f>
+        <v>שרשרת</v>
+      </c>
+    </row>
+    <row r="82" spans="5:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="E82" s="16" t="b">
+        <f>E$52=E30</f>
+        <v>0</v>
+      </c>
+      <c r="F82" s="10" t="b">
+        <f>F$52=F30</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="10" t="b">
+        <f>G$52=G30</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="10" t="b">
+        <f>H$52=H30</f>
+        <v>0</v>
+      </c>
+      <c r="I82" s="10" t="b">
+        <f>I$52=I30</f>
+        <v>0</v>
+      </c>
+      <c r="J82" s="17" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K82" s="18" t="str">
+        <f>IF(J82,A30,"")</f>
+        <v>כוורת</v>
+      </c>
+      <c r="L82" s="16" t="b">
+        <f>E$52=L30</f>
+        <v>0</v>
+      </c>
+      <c r="M82" s="10" t="b">
+        <f>F$52=M30</f>
+        <v>0</v>
+      </c>
+      <c r="N82" s="10" t="b">
+        <f>G$52=N30</f>
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="b">
+        <f>H$52=O30</f>
+        <v>1</v>
+      </c>
+      <c r="P82" s="10" t="b">
+        <f>I$52=P30</f>
+        <v>0</v>
+      </c>
+      <c r="Q82" s="17" t="b">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="K54" s="20" t="str">
-        <f t="shared" si="12"/>
-        <v>שמיים</v>
-      </c>
-      <c r="L54" s="18" t="b">
-        <f t="shared" ref="L54:P54" si="49">E$34=L20</f>
-        <v>0</v>
-      </c>
-      <c r="M54" s="12" t="b">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="N54" s="12" t="b">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="O54" s="12" t="b">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="P54" s="12" t="b">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="Q54" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="R54" s="20" t="str">
-        <f t="shared" si="15"/>
-        <v>מסילה</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="E55" s="18" t="b">
-        <f t="shared" ref="E55:I55" si="50">E$34=E21</f>
-        <v>0</v>
-      </c>
-      <c r="F55" s="12" t="b">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="12" t="b">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="H55" s="12" t="b">
-        <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="I55" s="12" t="b">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="J55" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R82" s="18" t="str">
+        <f>IF(Q82,C30,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="5:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E83" s="19" t="b">
+        <f>E$52=E31</f>
+        <v>1</v>
+      </c>
+      <c r="F83" s="20" t="b">
+        <f>F$52=F31</f>
+        <v>1</v>
+      </c>
+      <c r="G83" s="20" t="b">
+        <f>G$52=G31</f>
+        <v>1</v>
+      </c>
+      <c r="H83" s="20" t="b">
+        <f>H$52=H31</f>
+        <v>1</v>
+      </c>
+      <c r="I83" s="20" t="b">
+        <f>I$52=I31</f>
+        <v>1</v>
+      </c>
+      <c r="J83" s="21" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K83" s="22" t="str">
+        <f>IF(J83,A31,"")</f>
+        <v/>
+      </c>
+      <c r="L83" s="19" t="b">
+        <f>E$52=L31</f>
+        <v>0</v>
+      </c>
+      <c r="M83" s="20" t="b">
+        <f>F$52=M31</f>
+        <v>0</v>
+      </c>
+      <c r="N83" s="20" t="b">
+        <f>G$52=N31</f>
+        <v>0</v>
+      </c>
+      <c r="O83" s="20" t="b">
+        <f>H$52=O31</f>
+        <v>0</v>
+      </c>
+      <c r="P83" s="20" t="b">
+        <f>I$52=P31</f>
+        <v>0</v>
+      </c>
+      <c r="Q83" s="21" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="20" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L55" s="18" t="b">
-        <f t="shared" ref="L55:P55" si="51">E$34=L21</f>
-        <v>0</v>
-      </c>
-      <c r="M55" s="12" t="b">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="N55" s="12" t="b">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="O55" s="12" t="b">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="P55" s="12" t="b">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="Q55" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="R55" s="20" t="str">
-        <f t="shared" si="15"/>
-        <v>מסננת</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="E56" s="18" t="b">
-        <f t="shared" ref="E56:I56" si="52">E$34=E22</f>
-        <v>0</v>
-      </c>
-      <c r="F56" s="12" t="b">
-        <f t="shared" si="52"/>
-        <v>1</v>
-      </c>
-      <c r="G56" s="12" t="b">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="12" t="b">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="12" t="b">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="J56" s="19" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="20" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L56" s="18" t="b">
-        <f t="shared" ref="L56:P56" si="53">E$34=L22</f>
-        <v>0</v>
-      </c>
-      <c r="M56" s="12" t="b">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="N56" s="12" t="b">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="O56" s="12" t="b">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="P56" s="12" t="b">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="Q56" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="R56" s="20" t="str">
-        <f t="shared" si="15"/>
-        <v>מצלמה</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="E57" s="18" t="b">
-        <f t="shared" ref="E57:I57" si="54">E$34=E23</f>
-        <v>0</v>
-      </c>
-      <c r="F57" s="12" t="b">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="12" t="b">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="12" t="b">
-        <f t="shared" si="54"/>
-        <v>1</v>
-      </c>
-      <c r="I57" s="12" t="b">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="J57" s="19" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="20" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L57" s="18" t="b">
-        <f t="shared" ref="L57:P57" si="55">E$34=L23</f>
-        <v>0</v>
-      </c>
-      <c r="M57" s="12" t="b">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="N57" s="12" t="b">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="O57" s="12" t="b">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="P57" s="12" t="b">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="Q57" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="R57" s="20" t="str">
-        <f t="shared" si="15"/>
-        <v>מקלדת</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="E58" s="18" t="b">
-        <f t="shared" ref="E58:I58" si="56">E$34=E24</f>
-        <v>1</v>
-      </c>
-      <c r="F58" s="12" t="b">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="12" t="b">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="12" t="b">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="12" t="b">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="19" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="20" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L58" s="18" t="b">
-        <f t="shared" ref="L58:P58" si="57">E$34=L24</f>
-        <v>0</v>
-      </c>
-      <c r="M58" s="12" t="b">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="N58" s="12" t="b">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="O58" s="12" t="b">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="P58" s="12" t="b">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="Q58" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="R58" s="20" t="str">
-        <f t="shared" si="15"/>
-        <v>משאבה</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>67</v>
-      </c>
-      <c r="E59" s="18" t="b">
-        <f t="shared" ref="E59:I59" si="58">E$34=E25</f>
-        <v>0</v>
-      </c>
-      <c r="F59" s="12" t="b">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="G59" s="12" t="b">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="H59" s="12" t="b">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="I59" s="12" t="b">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="J59" s="19" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K59" s="20" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L59" s="18" t="b">
-        <f t="shared" ref="L59:P59" si="59">E$34=L25</f>
-        <v>0</v>
-      </c>
-      <c r="M59" s="12" t="b">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="N59" s="12" t="b">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="O59" s="12" t="b">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="P59" s="12" t="b">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="Q59" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="R59" s="20" t="str">
-        <f t="shared" si="15"/>
-        <v>עניבה</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="E60" s="18" t="b">
-        <f t="shared" ref="E60:I60" si="60">E$34=E26</f>
-        <v>0</v>
-      </c>
-      <c r="F60" s="12" t="b">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="12" t="b">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="12" t="b">
-        <f t="shared" si="60"/>
-        <v>1</v>
-      </c>
-      <c r="I60" s="12" t="b">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="19" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="20" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L60" s="18" t="b">
-        <f t="shared" ref="L60:P60" si="61">E$34=L26</f>
-        <v>0</v>
-      </c>
-      <c r="M60" s="12" t="b">
-        <f t="shared" si="61"/>
-        <v>1</v>
-      </c>
-      <c r="N60" s="12" t="b">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="O60" s="12" t="b">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="P60" s="12" t="b">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="Q60" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R60" s="20" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="E61" s="18" t="b">
-        <f t="shared" ref="E61:I61" si="62">E$34=E27</f>
-        <v>1</v>
-      </c>
-      <c r="F61" s="12" t="b">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="12" t="b">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H61" s="12" t="b">
-        <f t="shared" si="62"/>
-        <v>1</v>
-      </c>
-      <c r="I61" s="12" t="b">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="19" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="20" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L61" s="18" t="b">
-        <f t="shared" ref="L61:P61" si="63">E$34=L27</f>
-        <v>0</v>
-      </c>
-      <c r="M61" s="12" t="b">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="N61" s="12" t="b">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="O61" s="12" t="b">
-        <f t="shared" si="63"/>
-        <v>1</v>
-      </c>
-      <c r="P61" s="12" t="b">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="Q61" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R61" s="20" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="E62" s="18" t="b">
-        <f t="shared" ref="E62:I62" si="64">E$34=E28</f>
-        <v>0</v>
-      </c>
-      <c r="F62" s="12" t="b">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="12" t="b">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="H62" s="12" t="b">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="12" t="b">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="J62" s="19" t="b">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="K62" s="20" t="str">
-        <f t="shared" si="12"/>
-        <v>עכביש</v>
-      </c>
-      <c r="L62" s="18" t="b">
-        <f t="shared" ref="L62:P62" si="65">E$34=L28</f>
-        <v>0</v>
-      </c>
-      <c r="M62" s="12" t="b">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="N62" s="12" t="b">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="O62" s="12" t="b">
-        <f t="shared" si="65"/>
-        <v>1</v>
-      </c>
-      <c r="P62" s="12" t="b">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="Q62" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R62" s="20" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="E63" s="18" t="b">
-        <f t="shared" ref="E63:I63" si="66">E$34=E29</f>
-        <v>0</v>
-      </c>
-      <c r="F63" s="12" t="b">
-        <f t="shared" si="66"/>
-        <v>1</v>
-      </c>
-      <c r="G63" s="12" t="b">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="12" t="b">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="12" t="b">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="19" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K63" s="20" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L63" s="18" t="b">
-        <f t="shared" ref="L63:P63" si="67">E$34=L29</f>
-        <v>0</v>
-      </c>
-      <c r="M63" s="12" t="b">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="N63" s="12" t="b">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="O63" s="12" t="b">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="P63" s="12" t="b">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="Q63" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="R63" s="20" t="str">
-        <f t="shared" si="15"/>
-        <v>שרשרת</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="E64" s="18" t="b">
-        <f t="shared" ref="E64:I64" si="68">E$34=E30</f>
-        <v>0</v>
-      </c>
-      <c r="F64" s="12" t="b">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="12" t="b">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="12" t="b">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="12" t="b">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="19" t="b">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="K64" s="20" t="str">
-        <f t="shared" si="12"/>
-        <v>כוורת</v>
-      </c>
-      <c r="L64" s="18" t="b">
-        <f t="shared" ref="L64:P64" si="69">E$34=L30</f>
-        <v>0</v>
-      </c>
-      <c r="M64" s="12" t="b">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="N64" s="12" t="b">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="O64" s="12" t="b">
-        <f t="shared" si="69"/>
-        <v>1</v>
-      </c>
-      <c r="P64" s="12" t="b">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="Q64" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R64" s="20" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="5:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="21" t="b">
-        <f t="shared" ref="E65:I65" si="70">E$34=E31</f>
-        <v>1</v>
-      </c>
-      <c r="F65" s="22" t="b">
-        <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-      <c r="G65" s="22" t="b">
-        <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-      <c r="H65" s="22" t="b">
-        <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-      <c r="I65" s="22" t="b">
-        <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-      <c r="J65" s="23" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="24" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L65" s="21" t="b">
-        <f t="shared" ref="L65:P65" si="71">E$34=L31</f>
-        <v>0</v>
-      </c>
-      <c r="M65" s="22" t="b">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="N65" s="22" t="b">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="O65" s="22" t="b">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="P65" s="22" t="b">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="Q65" s="23" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="R65" s="24" t="str">
-        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="R83" s="22" t="str">
+        <f>IF(Q83,C31,"")</f>
         <v>תרסיס</v>
       </c>
     </row>
-    <row r="66" spans="5:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="I66" t="s">
+    <row r="84" spans="5:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="I84" t="s">
         <v>38</v>
       </c>
-      <c r="J66" s="1">
-        <f>J36+J37+J38+J39+J40+J41+J42+J43+J44+J45+J46+J47+J48+J49+J50+J51+J52+J53+J54+J55+J56+J57+J58+J59+J60+J61+J62+J63+J64+J65</f>
+      <c r="J84" s="1">
+        <f>J54+J55+J56+J57+J58+J59+J60+J61+J62+J63+J64+J65+J66+J67+J68+J69+J70+J71+J72+J73+J74+J75+J76+J77+J78+J79+J80+J81+J82+J83</f>
         <v>11</v>
       </c>
-      <c r="P66" t="s">
+      <c r="P84" t="s">
         <v>39</v>
       </c>
-      <c r="Q66" s="1">
-        <f>Q36+Q37+Q38+Q39+Q40+Q41+Q42+Q43+Q44+Q45+Q46+Q47+Q48+Q49+Q50+Q51+Q52+Q53+Q54+Q55+Q56+Q57+Q58+Q59+Q60+Q62+Q61+Q63+Q64+Q65</f>
+      <c r="Q84" s="1">
+        <f>Q54+Q55+Q56+Q57+Q58+Q59+Q60+Q61+Q62+Q63+Q64+Q65+Q66+Q67+Q68+Q69+Q70+Q71+Q72+Q73+Q74+Q75+Q76+Q77+Q78+Q80+Q79+Q81+Q82+Q83</f>
         <v>19</v>
       </c>
     </row>
@@ -4281,8 +4395,8 @@
   <mergeCells count="4">
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="L1:P1"/>
-    <mergeCell ref="L35:P35"/>
-    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="L53:P53"/>
+    <mergeCell ref="E53:I53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/development/stimuli/word_lists/no_common_letters_calc.xlsx
+++ b/development/stimuli/word_lists/no_common_letters_calc.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\development\stimuli\word_lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\khen_heller\subliminal_priming_w_motion_capture\development\stimuli\word_lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C869B9B8-C967-43CA-8F2A-096BB4036CD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -255,8 +254,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,13 +275,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -309,8 +301,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -474,15 +466,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
         <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,7 +514,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -535,6 +526,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -814,11 +806,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R84"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -844,20 +836,20 @@
       <c r="D1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="L1" s="27" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="L1" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -2553,7 +2545,7 @@
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
     </row>
-    <row r="51" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
     </row>
     <row r="52" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2561,8 +2553,8 @@
       <c r="C52" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="25" t="s">
-        <v>34</v>
+      <c r="D52" s="29" t="s">
+        <v>10</v>
       </c>
       <c r="E52" t="str">
         <f>MID(D52,1,1)</f>
@@ -2570,43 +2562,43 @@
       </c>
       <c r="F52" t="str">
         <f>MID(D52,2,1)</f>
-        <v>ל</v>
+        <v>ב</v>
       </c>
       <c r="G52" t="str">
         <f>MID(D52,3,1)</f>
-        <v>מ</v>
+        <v>ט</v>
       </c>
       <c r="H52" t="str">
         <f>MID(D52,4,1)</f>
-        <v>ו</v>
+        <v>י</v>
       </c>
       <c r="I52" t="str">
         <f>MID(D52,5,1)</f>
-        <v>ג</v>
+        <v>ח</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
       <c r="J53" s="23" t="s">
         <v>68</v>
       </c>
       <c r="K53" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L53" s="28" t="s">
+      <c r="L53" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="28"/>
       <c r="Q53" s="23" t="s">
         <v>68</v>
       </c>
@@ -2617,51 +2609,51 @@
     <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="E54" s="12" t="b">
-        <f>E$52=E2</f>
+        <f t="shared" ref="E54:I63" si="10">E$52=E2</f>
         <v>1</v>
       </c>
       <c r="F54" s="13" t="b">
-        <f>F$52=F2</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="G54" s="13" t="b">
-        <f>G$52=G2</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="H54" s="13" t="b">
-        <f>H$52=H2</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="I54" s="13" t="b">
-        <f>I$52=I2</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="J54" s="14" t="b">
         <f>NOT(OR(I54,H54,G54,F54,E54))</f>
         <v>0</v>
       </c>
       <c r="K54" s="15" t="str">
-        <f>IF(J54,A2,"")</f>
+        <f t="shared" ref="K54:K83" si="11">IF(J54,A2,"")</f>
         <v/>
       </c>
       <c r="L54" s="12" t="b">
-        <f>E$52=L2</f>
+        <f t="shared" ref="L54:L83" si="12">E$52=L2</f>
         <v>1</v>
       </c>
       <c r="M54" s="13" t="b">
-        <f>F$52=M2</f>
+        <f t="shared" ref="M54:M83" si="13">F$52=M2</f>
         <v>0</v>
       </c>
       <c r="N54" s="13" t="b">
-        <f>G$52=N2</f>
+        <f t="shared" ref="N54:N83" si="14">G$52=N2</f>
         <v>0</v>
       </c>
       <c r="O54" s="13" t="b">
-        <f>H$52=O2</f>
+        <f t="shared" ref="O54:O83" si="15">H$52=O2</f>
         <v>0</v>
       </c>
       <c r="P54" s="13" t="b">
-        <f>I$52=P2</f>
+        <f t="shared" ref="P54:P83" si="16">I$52=P2</f>
         <v>0</v>
       </c>
       <c r="Q54" s="14" t="b">
@@ -2669,1300 +2661,1300 @@
         <v>0</v>
       </c>
       <c r="R54" s="15" t="str">
-        <f>IF(Q54,C2,"")</f>
+        <f t="shared" ref="R54:R83" si="17">IF(Q54,C2,"")</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="E55" s="16" t="b">
-        <f>E$52=E3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F55" s="10" t="b">
-        <f>F$52=F3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G55" s="10" t="b">
-        <f>G$52=G3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H55" s="10" t="b">
-        <f>H$52=H3</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="I55" s="10" t="b">
-        <f>I$52=I3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J55" s="17" t="b">
-        <f t="shared" ref="J55:J83" si="10">NOT(OR(I55,H55,G55,F55,E55))</f>
-        <v>1</v>
+        <f t="shared" ref="J55:J83" si="18">NOT(OR(I55,H55,G55,F55,E55))</f>
+        <v>0</v>
       </c>
       <c r="K55" s="18" t="str">
-        <f>IF(J55,A3,"")</f>
-        <v>פרחים</v>
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="L55" s="16" t="b">
-        <f>E$52=L3</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M55" s="10" t="b">
-        <f>F$52=M3</f>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="N55" s="10" t="b">
-        <f>G$52=N3</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O55" s="10" t="b">
-        <f>H$52=O3</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P55" s="10" t="b">
-        <f>I$52=P3</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q55" s="17" t="b">
-        <f t="shared" ref="Q55:Q83" si="11">NOT(OR(P55,O55,N55,M55,L55))</f>
-        <v>0</v>
+        <f t="shared" ref="Q55:Q83" si="19">NOT(OR(P55,O55,N55,M55,L55))</f>
+        <v>1</v>
       </c>
       <c r="R55" s="18" t="str">
-        <f>IF(Q55,C3,"")</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>בלנדר</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="E56" s="16" t="b">
-        <f>E$52=E4</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F56" s="10" t="b">
-        <f>F$52=F4</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G56" s="10" t="b">
-        <f>G$52=G4</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H56" s="10" t="b">
-        <f>H$52=H4</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I56" s="10" t="b">
-        <f>I$52=I4</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J56" s="17" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="K56" s="18" t="str">
-        <f>IF(J56,A4,"")</f>
+        <f t="shared" si="11"/>
         <v>צפרדע</v>
       </c>
       <c r="L56" s="16" t="b">
-        <f>E$52=L4</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M56" s="10" t="b">
-        <f>F$52=M4</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N56" s="10" t="b">
-        <f>G$52=N4</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="O56" s="10" t="b">
-        <f>H$52=O4</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P56" s="10" t="b">
-        <f>I$52=P4</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q56" s="17" t="b">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="R56" s="18" t="str">
-        <f>IF(Q56,C4,"")</f>
-        <v>גיטרה</v>
+        <f t="shared" si="17"/>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="E57" s="16" t="b">
-        <f>E$52=E5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F57" s="10" t="b">
-        <f>F$52=F5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G57" s="10" t="b">
-        <f>G$52=G5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H57" s="10" t="b">
-        <f>H$52=H5</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="I57" s="10" t="b">
-        <f>I$52=I5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J57" s="17" t="b">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="K57" s="18" t="str">
-        <f>IF(J57,A5,"")</f>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>קיפוד</v>
       </c>
       <c r="L57" s="16" t="b">
-        <f>E$52=L5</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M57" s="10" t="b">
-        <f>F$52=M5</f>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="N57" s="10" t="b">
-        <f>G$52=N5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O57" s="10" t="b">
-        <f>H$52=O5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P57" s="10" t="b">
-        <f>I$52=P5</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q57" s="17" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="R57" s="18" t="str">
-        <f>IF(Q57,C5,"")</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>גלידה</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="E58" s="16" t="b">
-        <f>E$52=E6</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F58" s="10" t="b">
-        <f>F$52=F6</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G58" s="10" t="b">
-        <f>G$52=G6</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H58" s="10" t="b">
-        <f>H$52=H6</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="I58" s="10" t="b">
-        <f>I$52=I6</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="J58" s="17" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K58" s="18" t="str">
-        <f>IF(J58,A6,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L58" s="16" t="b">
-        <f>E$52=L6</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M58" s="10" t="b">
-        <f>F$52=M6</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N58" s="10" t="b">
-        <f>G$52=N6</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O58" s="10" t="b">
-        <f>H$52=O6</f>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="P58" s="10" t="b">
-        <f>I$52=P6</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q58" s="17" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="R58" s="18" t="str">
-        <f>IF(Q58,C6,"")</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>וילון</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="E59" s="16" t="b">
-        <f>E$52=E7</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F59" s="10" t="b">
-        <f>F$52=F7</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G59" s="10" t="b">
-        <f>G$52=G7</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H59" s="10" t="b">
-        <f>H$52=H7</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="I59" s="10" t="b">
-        <f>I$52=I7</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J59" s="17" t="b">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="K59" s="18" t="str">
-        <f>IF(J59,A7,"")</f>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>קרסול</v>
       </c>
       <c r="L59" s="16" t="b">
-        <f>E$52=L7</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M59" s="10" t="b">
-        <f>F$52=M7</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N59" s="10" t="b">
-        <f>G$52=N7</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O59" s="10" t="b">
-        <f>H$52=O7</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P59" s="10" t="b">
-        <f>I$52=P7</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q59" s="17" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R59" s="18" t="str">
-        <f>IF(Q59,C7,"")</f>
+        <f t="shared" si="17"/>
         <v>יאכטה</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="E60" s="16" t="b">
-        <f>E$52=E8</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F60" s="10" t="b">
-        <f>F$52=F8</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G60" s="10" t="b">
-        <f>G$52=G8</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H60" s="10" t="b">
-        <f>H$52=H8</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I60" s="10" t="b">
-        <f>I$52=I8</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J60" s="17" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K60" s="18" t="str">
-        <f>IF(J60,A8,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L60" s="16" t="b">
-        <f>E$52=L8</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M60" s="10" t="b">
-        <f>F$52=M8</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N60" s="10" t="b">
-        <f>G$52=N8</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O60" s="10" t="b">
-        <f>H$52=O8</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P60" s="10" t="b">
-        <f>I$52=P8</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q60" s="17" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R60" s="18" t="str">
-        <f>IF(Q60,C8,"")</f>
+        <f t="shared" si="17"/>
         <v>טוסטר</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="E61" s="16" t="b">
-        <f>E$52=E9</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F61" s="10" t="b">
-        <f>F$52=F9</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G61" s="10" t="b">
-        <f>G$52=G9</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H61" s="10" t="b">
-        <f>H$52=H9</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="I61" s="10" t="b">
-        <f>I$52=I9</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J61" s="17" t="b">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="K61" s="18" t="str">
-        <f>IF(J61,A9,"")</f>
-        <v>מעיים</v>
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="L61" s="16" t="b">
-        <f>E$52=L9</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M61" s="10" t="b">
-        <f>F$52=M9</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="N61" s="10" t="b">
-        <f>G$52=N9</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O61" s="10" t="b">
-        <f>H$52=O9</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P61" s="10" t="b">
-        <f>I$52=P9</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q61" s="17" t="b">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="R61" s="18" t="str">
-        <f>IF(Q61,C9,"")</f>
-        <v>כביסה</v>
+        <f t="shared" si="17"/>
+        <v/>
       </c>
     </row>
     <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="E62" s="16" t="b">
-        <f>E$52=E10</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F62" s="10" t="b">
-        <f>F$52=F10</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G62" s="10" t="b">
-        <f>G$52=G10</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="H62" s="10" t="b">
-        <f>H$52=H10</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="I62" s="10" t="b">
-        <f>I$52=I10</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J62" s="17" t="b">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="K62" s="18" t="str">
-        <f>IF(J62,A10,"")</f>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>לימון</v>
       </c>
       <c r="L62" s="16" t="b">
-        <f>E$52=L10</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M62" s="10" t="b">
-        <f>F$52=M10</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N62" s="10" t="b">
-        <f>G$52=N10</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O62" s="10" t="b">
-        <f>H$52=O10</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P62" s="10" t="b">
-        <f>I$52=P10</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q62" s="17" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R62" s="18" t="str">
-        <f>IF(Q62,C10,"")</f>
+        <f t="shared" si="17"/>
         <v>כורסה</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="E63" s="16" t="b">
-        <f>E$52=E11</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F63" s="10" t="b">
-        <f>F$52=F11</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="G63" s="10" t="b">
-        <f>G$52=G11</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H63" s="10" t="b">
-        <f>H$52=H11</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="I63" s="10" t="b">
-        <f>I$52=I11</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J63" s="17" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K63" s="18" t="str">
-        <f>IF(J63,A11,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L63" s="16" t="b">
-        <f>E$52=L11</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M63" s="10" t="b">
-        <f>F$52=M11</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N63" s="10" t="b">
-        <f>G$52=N11</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O63" s="10" t="b">
-        <f>H$52=O11</f>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="P63" s="10" t="b">
-        <f>I$52=P11</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q63" s="17" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="R63" s="18" t="str">
-        <f>IF(Q63,C11,"")</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>כידון</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="E64" s="16" t="b">
-        <f>E$52=E12</f>
+        <f t="shared" ref="E64:I73" si="20">E$52=E12</f>
         <v>0</v>
       </c>
       <c r="F64" s="10" t="b">
-        <f>F$52=F12</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G64" s="10" t="b">
-        <f>G$52=G12</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H64" s="10" t="b">
-        <f>H$52=H12</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I64" s="10" t="b">
-        <f>I$52=I12</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J64" s="17" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="K64" s="18" t="str">
-        <f>IF(J64,A12,"")</f>
+        <f t="shared" si="11"/>
         <v>זריחה</v>
       </c>
       <c r="L64" s="16" t="b">
-        <f>E$52=L12</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M64" s="10" t="b">
-        <f>F$52=M12</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N64" s="10" t="b">
-        <f>G$52=N12</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O64" s="10" t="b">
-        <f>H$52=O12</f>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="P64" s="10" t="b">
-        <f>I$52=P12</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q64" s="17" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="R64" s="18" t="str">
-        <f>IF(Q64,C12,"")</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>כינור</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="E65" s="16" t="b">
-        <f>E$52=E13</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F65" s="10" t="b">
-        <f>F$52=F13</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G65" s="10" t="b">
-        <f>G$52=G13</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H65" s="10" t="b">
-        <f>H$52=H13</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I65" s="10" t="b">
-        <f>I$52=I13</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J65" s="17" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="K65" s="18" t="str">
-        <f>IF(J65,A13,"")</f>
+        <f t="shared" si="11"/>
         <v>פיסגה</v>
       </c>
       <c r="L65" s="16" t="b">
-        <f>E$52=L13</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M65" s="10" t="b">
-        <f>F$52=M13</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N65" s="10" t="b">
-        <f>G$52=N13</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O65" s="10" t="b">
-        <f>H$52=O13</f>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="P65" s="10" t="b">
-        <f>I$52=P13</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q65" s="17" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="R65" s="18" t="str">
-        <f>IF(Q65,C13,"")</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>כפתור</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="E66" s="16" t="b">
-        <f>E$52=E14</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F66" s="10" t="b">
-        <f>F$52=F14</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G66" s="10" t="b">
-        <f>G$52=G14</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H66" s="10" t="b">
-        <f>H$52=H14</f>
-        <v>1</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="I66" s="10" t="b">
-        <f>I$52=I14</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J66" s="17" t="b">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="K66" s="18" t="str">
-        <f>IF(J66,A14,"")</f>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>קישוא</v>
       </c>
       <c r="L66" s="16" t="b">
-        <f>E$52=L14</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M66" s="10" t="b">
-        <f>F$52=M14</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N66" s="10" t="b">
-        <f>G$52=N14</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O66" s="10" t="b">
-        <f>H$52=O14</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P66" s="10" t="b">
-        <f>I$52=P14</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q66" s="17" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R66" s="18" t="str">
-        <f>IF(Q66,C14,"")</f>
+        <f t="shared" si="17"/>
         <v>מגירה</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="E67" s="16" t="b">
-        <f>E$52=E15</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F67" s="10" t="b">
-        <f>F$52=F15</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G67" s="10" t="b">
-        <f>G$52=G15</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H67" s="10" t="b">
-        <f>H$52=H15</f>
-        <v>1</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="I67" s="10" t="b">
-        <f>I$52=I15</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J67" s="17" t="b">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="K67" s="18" t="str">
-        <f>IF(J67,A15,"")</f>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>מטאור</v>
       </c>
       <c r="L67" s="16" t="b">
-        <f>E$52=L15</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M67" s="10" t="b">
-        <f>F$52=M15</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N67" s="10" t="b">
-        <f>G$52=N15</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O67" s="10" t="b">
-        <f>H$52=O15</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P67" s="10" t="b">
-        <f>I$52=P15</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q67" s="17" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R67" s="18" t="str">
-        <f>IF(Q67,C15,"")</f>
+        <f t="shared" si="17"/>
         <v>מדפסת</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="E68" s="16" t="b">
-        <f>E$52=E16</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F68" s="10" t="b">
-        <f>F$52=F16</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G68" s="10" t="b">
-        <f>G$52=G16</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H68" s="10" t="b">
-        <f>H$52=H16</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1</v>
       </c>
       <c r="I68" s="10" t="b">
-        <f>I$52=I16</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J68" s="17" t="b">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="K68" s="18" t="str">
-        <f>IF(J68,A16,"")</f>
-        <v>נרקיס</v>
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="L68" s="16" t="b">
-        <f>E$52=L16</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M68" s="10" t="b">
-        <f>F$52=M16</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N68" s="10" t="b">
-        <f>G$52=N16</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O68" s="10" t="b">
-        <f>H$52=O16</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P68" s="10" t="b">
-        <f>I$52=P16</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q68" s="17" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R68" s="18" t="str">
-        <f>IF(Q68,C16,"")</f>
+        <f t="shared" si="17"/>
         <v>מזרקה</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="E69" s="16" t="b">
-        <f>E$52=E17</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="F69" s="10" t="b">
-        <f>F$52=F17</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G69" s="10" t="b">
-        <f>G$52=G17</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H69" s="10" t="b">
-        <f>H$52=H17</f>
-        <v>1</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="I69" s="10" t="b">
-        <f>I$52=I17</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J69" s="17" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K69" s="18" t="str">
-        <f>IF(J69,A17,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L69" s="16" t="b">
-        <f>E$52=L17</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M69" s="10" t="b">
-        <f>F$52=M17</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N69" s="10" t="b">
-        <f>G$52=N17</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O69" s="10" t="b">
-        <f>H$52=O17</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P69" s="10" t="b">
-        <f>I$52=P17</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q69" s="17" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R69" s="18" t="str">
-        <f>IF(Q69,C17,"")</f>
+        <f t="shared" si="17"/>
         <v>מטאטא</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="E70" s="16" t="b">
-        <f>E$52=E18</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F70" s="10" t="b">
-        <f>F$52=F18</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G70" s="10" t="b">
-        <f>G$52=G18</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H70" s="10" t="b">
-        <f>H$52=H18</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1</v>
       </c>
       <c r="I70" s="10" t="b">
-        <f>I$52=I18</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J70" s="17" t="b">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="K70" s="18" t="str">
-        <f>IF(J70,A18,"")</f>
-        <v>עשבים</v>
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="L70" s="16" t="b">
-        <f>E$52=L18</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M70" s="10" t="b">
-        <f>F$52=M18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N70" s="10" t="b">
-        <f>G$52=N18</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O70" s="10" t="b">
-        <f>H$52=O18</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P70" s="10" t="b">
-        <f>I$52=P18</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q70" s="17" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R70" s="18" t="str">
-        <f>IF(Q70,C18,"")</f>
+        <f t="shared" si="17"/>
         <v>מייבש</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="E71" s="16" t="b">
-        <f>E$52=E19</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F71" s="10" t="b">
-        <f>F$52=F19</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G71" s="10" t="b">
-        <f>G$52=G19</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H71" s="10" t="b">
-        <f>H$52=H19</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1</v>
       </c>
       <c r="I71" s="10" t="b">
-        <f>I$52=I19</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J71" s="17" t="b">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="K71" s="18" t="str">
-        <f>IF(J71,A19,"")</f>
-        <v>עמקים</v>
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="L71" s="16" t="b">
-        <f>E$52=L19</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M71" s="10" t="b">
-        <f>F$52=M19</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N71" s="10" t="b">
-        <f>G$52=N19</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O71" s="10" t="b">
-        <f>H$52=O19</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P71" s="10" t="b">
-        <f>I$52=P19</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q71" s="17" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R71" s="18" t="str">
-        <f>IF(Q71,C19,"")</f>
+        <f t="shared" si="17"/>
         <v>מנורה</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="E72" s="16" t="b">
-        <f>E$52=E20</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F72" s="10" t="b">
-        <f>F$52=F20</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G72" s="10" t="b">
-        <f>G$52=G20</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H72" s="10" t="b">
-        <f>H$52=H20</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1</v>
       </c>
       <c r="I72" s="10" t="b">
-        <f>I$52=I20</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J72" s="17" t="b">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="K72" s="18" t="str">
-        <f>IF(J72,A20,"")</f>
-        <v>שמיים</v>
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="L72" s="16" t="b">
-        <f>E$52=L20</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M72" s="10" t="b">
-        <f>F$52=M20</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N72" s="10" t="b">
-        <f>G$52=N20</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O72" s="10" t="b">
-        <f>H$52=O20</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P72" s="10" t="b">
-        <f>I$52=P20</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q72" s="17" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R72" s="18" t="str">
-        <f>IF(Q72,C20,"")</f>
+        <f t="shared" si="17"/>
         <v>מסילה</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="E73" s="16" t="b">
-        <f>E$52=E21</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F73" s="10" t="b">
-        <f>F$52=F21</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G73" s="10" t="b">
-        <f>G$52=G21</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H73" s="10" t="b">
-        <f>H$52=H21</f>
-        <v>1</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="I73" s="10" t="b">
-        <f>I$52=I21</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J73" s="17" t="b">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="K73" s="18" t="str">
-        <f>IF(J73,A21,"")</f>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>ציפור</v>
       </c>
       <c r="L73" s="16" t="b">
-        <f>E$52=L21</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M73" s="10" t="b">
-        <f>F$52=M21</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N73" s="10" t="b">
-        <f>G$52=N21</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O73" s="10" t="b">
-        <f>H$52=O21</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P73" s="10" t="b">
-        <f>I$52=P21</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q73" s="17" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R73" s="18" t="str">
-        <f>IF(Q73,C21,"")</f>
+        <f t="shared" si="17"/>
         <v>מסננת</v>
       </c>
     </row>
     <row r="74" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="E74" s="16" t="b">
-        <f>E$52=E22</f>
+        <f t="shared" ref="E74:I83" si="21">E$52=E22</f>
         <v>0</v>
       </c>
       <c r="F74" s="10" t="b">
-        <f>F$52=F22</f>
-        <v>1</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="G74" s="10" t="b">
-        <f>G$52=G22</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H74" s="10" t="b">
-        <f>H$52=H22</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="I74" s="10" t="b">
-        <f>I$52=I22</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J74" s="17" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K74" s="18" t="str">
-        <f>IF(J74,A22,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L74" s="16" t="b">
-        <f>E$52=L22</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M74" s="10" t="b">
-        <f>F$52=M22</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N74" s="10" t="b">
-        <f>G$52=N22</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O74" s="10" t="b">
-        <f>H$52=O22</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P74" s="10" t="b">
-        <f>I$52=P22</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q74" s="17" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R74" s="18" t="str">
-        <f>IF(Q74,C22,"")</f>
+        <f t="shared" si="17"/>
         <v>מצלמה</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="E75" s="16" t="b">
-        <f>E$52=E23</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F75" s="10" t="b">
-        <f>F$52=F23</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="G75" s="10" t="b">
-        <f>G$52=G23</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H75" s="10" t="b">
-        <f>H$52=H23</f>
-        <v>1</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="I75" s="10" t="b">
-        <f>I$52=I23</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J75" s="17" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K75" s="18" t="str">
-        <f>IF(J75,A23,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L75" s="16" t="b">
-        <f>E$52=L23</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M75" s="10" t="b">
-        <f>F$52=M23</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N75" s="10" t="b">
-        <f>G$52=N23</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O75" s="10" t="b">
-        <f>H$52=O23</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P75" s="10" t="b">
-        <f>I$52=P23</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q75" s="17" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R75" s="18" t="str">
-        <f>IF(Q75,C23,"")</f>
+        <f t="shared" si="17"/>
         <v>מקלדת</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="E76" s="16" t="b">
-        <f>E$52=E24</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="F76" s="10" t="b">
-        <f>F$52=F24</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G76" s="10" t="b">
-        <f>G$52=G24</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H76" s="10" t="b">
-        <f>H$52=H24</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I76" s="10" t="b">
-        <f>I$52=I24</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J76" s="17" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K76" s="18" t="str">
-        <f>IF(J76,A24,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L76" s="16" t="b">
-        <f>E$52=L24</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M76" s="10" t="b">
-        <f>F$52=M24</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N76" s="10" t="b">
-        <f>G$52=N24</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O76" s="10" t="b">
-        <f>H$52=O24</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P76" s="10" t="b">
-        <f>I$52=P24</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q76" s="17" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R76" s="18" t="str">
-        <f>IF(Q76,C24,"")</f>
+        <f t="shared" si="17"/>
         <v>משאבה</v>
       </c>
     </row>
@@ -3971,408 +3963,408 @@
         <v>67</v>
       </c>
       <c r="E77" s="16" t="b">
-        <f>E$52=E25</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F77" s="10" t="b">
-        <f>F$52=F25</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G77" s="10" t="b">
-        <f>G$52=G25</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H77" s="10" t="b">
-        <f>H$52=H25</f>
-        <v>1</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="I77" s="10" t="b">
-        <f>I$52=I25</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J77" s="17" t="b">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="K77" s="18" t="str">
-        <f>IF(J77,A25,"")</f>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>ברווז</v>
       </c>
       <c r="L77" s="16" t="b">
-        <f>E$52=L25</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M77" s="10" t="b">
-        <f>F$52=M25</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N77" s="10" t="b">
-        <f>G$52=N25</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O77" s="10" t="b">
-        <f>H$52=O25</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P77" s="10" t="b">
-        <f>I$52=P25</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q77" s="17" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R77" s="18" t="str">
-        <f>IF(Q77,C25,"")</f>
+        <f t="shared" si="17"/>
         <v>עניבה</v>
       </c>
     </row>
     <row r="78" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="E78" s="16" t="b">
-        <f>E$52=E26</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F78" s="10" t="b">
-        <f>F$52=F26</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G78" s="10" t="b">
-        <f>G$52=G26</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H78" s="10" t="b">
-        <f>H$52=H26</f>
-        <v>1</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="I78" s="10" t="b">
-        <f>I$52=I26</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J78" s="17" t="b">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="K78" s="18" t="str">
-        <f>IF(J78,A26,"")</f>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>חרגול</v>
       </c>
       <c r="L78" s="16" t="b">
-        <f>E$52=L26</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M78" s="10" t="b">
-        <f>F$52=M26</f>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="N78" s="10" t="b">
-        <f>G$52=N26</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O78" s="10" t="b">
-        <f>H$52=O26</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="P78" s="10" t="b">
-        <f>I$52=P26</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q78" s="17" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R78" s="18" t="str">
-        <f>IF(Q78,C26,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="E79" s="16" t="b">
-        <f>E$52=E27</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="F79" s="10" t="b">
-        <f>F$52=F27</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G79" s="10" t="b">
-        <f>G$52=G27</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H79" s="10" t="b">
-        <f>H$52=H27</f>
-        <v>1</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="I79" s="10" t="b">
-        <f>I$52=I27</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="J79" s="17" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K79" s="18" t="str">
-        <f>IF(J79,A27,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L79" s="16" t="b">
-        <f>E$52=L27</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M79" s="10" t="b">
-        <f>F$52=M27</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N79" s="10" t="b">
-        <f>G$52=N27</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O79" s="10" t="b">
-        <f>H$52=O27</f>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="P79" s="10" t="b">
-        <f>I$52=P27</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q79" s="17" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="R79" s="18" t="str">
-        <f>IF(Q79,C27,"")</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>רמזור</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="E80" s="16" t="b">
-        <f>E$52=E28</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F80" s="10" t="b">
-        <f>F$52=F28</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G80" s="10" t="b">
-        <f>G$52=G28</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H80" s="10" t="b">
-        <f>H$52=H28</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="I80" s="10" t="b">
-        <f>I$52=I28</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J80" s="17" t="b">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="K80" s="18" t="str">
-        <f>IF(J80,A28,"")</f>
-        <v>עכביש</v>
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="L80" s="16" t="b">
-        <f>E$52=L28</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M80" s="10" t="b">
-        <f>F$52=M28</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N80" s="10" t="b">
-        <f>G$52=N28</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O80" s="10" t="b">
-        <f>H$52=O28</f>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="P80" s="10" t="b">
-        <f>I$52=P28</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q80" s="17" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="R80" s="18" t="str">
-        <f>IF(Q80,C28,"")</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>רמקול</v>
       </c>
     </row>
     <row r="81" spans="5:18" ht="15" x14ac:dyDescent="0.25">
       <c r="E81" s="16" t="b">
-        <f>E$52=E29</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F81" s="10" t="b">
-        <f>F$52=F29</f>
-        <v>1</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="G81" s="10" t="b">
-        <f>G$52=G29</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H81" s="10" t="b">
-        <f>H$52=H29</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="I81" s="10" t="b">
-        <f>I$52=I29</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J81" s="17" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K81" s="18" t="str">
-        <f>IF(J81,A29,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L81" s="16" t="b">
-        <f>E$52=L29</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M81" s="10" t="b">
-        <f>F$52=M29</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N81" s="10" t="b">
-        <f>G$52=N29</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O81" s="10" t="b">
-        <f>H$52=O29</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P81" s="10" t="b">
-        <f>I$52=P29</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q81" s="17" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R81" s="18" t="str">
-        <f>IF(Q81,C29,"")</f>
+        <f t="shared" si="17"/>
         <v>שרשרת</v>
       </c>
     </row>
     <row r="82" spans="5:18" ht="15" x14ac:dyDescent="0.25">
       <c r="E82" s="16" t="b">
-        <f>E$52=E30</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F82" s="10" t="b">
-        <f>F$52=F30</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G82" s="10" t="b">
-        <f>G$52=G30</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H82" s="10" t="b">
-        <f>H$52=H30</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I82" s="10" t="b">
-        <f>I$52=I30</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J82" s="17" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="K82" s="18" t="str">
-        <f>IF(J82,A30,"")</f>
+        <f t="shared" si="11"/>
         <v>כוורת</v>
       </c>
       <c r="L82" s="16" t="b">
-        <f>E$52=L30</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M82" s="10" t="b">
-        <f>F$52=M30</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N82" s="10" t="b">
-        <f>G$52=N30</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O82" s="10" t="b">
-        <f>H$52=O30</f>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="P82" s="10" t="b">
-        <f>I$52=P30</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q82" s="17" t="b">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="R82" s="18" t="str">
-        <f>IF(Q82,C30,"")</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>תמרור</v>
       </c>
     </row>
     <row r="83" spans="5:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E83" s="19" t="b">
-        <f>E$52=E31</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="F83" s="20" t="b">
-        <f>F$52=F31</f>
-        <v>1</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="G83" s="20" t="b">
-        <f>G$52=G31</f>
-        <v>1</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="H83" s="20" t="b">
-        <f>H$52=H31</f>
-        <v>1</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="I83" s="20" t="b">
-        <f>I$52=I31</f>
-        <v>1</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="J83" s="21" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K83" s="22" t="str">
-        <f>IF(J83,A31,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L83" s="19" t="b">
-        <f>E$52=L31</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M83" s="20" t="b">
-        <f>F$52=M31</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N83" s="20" t="b">
-        <f>G$52=N31</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O83" s="20" t="b">
-        <f>H$52=O31</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="P83" s="20" t="b">
-        <f>I$52=P31</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q83" s="21" t="b">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="R83" s="22" t="str">
-        <f>IF(Q83,C31,"")</f>
-        <v>תרסיס</v>
+        <f t="shared" si="17"/>
+        <v/>
       </c>
     </row>
     <row r="84" spans="5:18" ht="15" x14ac:dyDescent="0.25">
@@ -4381,14 +4373,14 @@
       </c>
       <c r="J84" s="1">
         <f>J54+J55+J56+J57+J58+J59+J60+J61+J62+J63+J64+J65+J66+J67+J68+J69+J70+J71+J72+J73+J74+J75+J76+J77+J78+J79+J80+J81+J82+J83</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P84" t="s">
         <v>39</v>
       </c>
       <c r="Q84" s="1">
         <f>Q54+Q55+Q56+Q57+Q58+Q59+Q60+Q61+Q62+Q63+Q64+Q65+Q66+Q67+Q68+Q69+Q70+Q71+Q72+Q73+Q74+Q75+Q76+Q77+Q78+Q80+Q79+Q81+Q82+Q83</f>
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
